--- a/bots/crawl_ch/output/clothes_2022-07-20.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-20.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-20 07:01:57</t>
+          <t>2022-07-20 20:58:53</t>
         </is>
       </c>
     </row>
